--- a/src/test/resources/moodle_login.xlsx
+++ b/src/test/resources/moodle_login.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -31,7 +32,7 @@
     <t>abc123</t>
   </si>
   <si>
-    <t>Invalid login, please try again</t>
+    <t>Invalid login, pleadffdsse try again</t>
   </si>
 </sst>
 </file>
@@ -376,12 +377,13 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
